--- a/first.xlsx
+++ b/first.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82283965-EF5D-479A-9689-BB4D3C5D402C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6467940-98C0-441E-A288-EF25FA4CCCB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,7 +341,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,75 +401,971 @@
         <f>B$1*$A2</f>
         <v>1</v>
       </c>
+      <c r="C2">
+        <f t="shared" ref="C2:P16" si="0">C$1*$A2</f>
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B16" si="1">B$1*$A3</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>104</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>117</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>98</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>126</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>196</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="0"/>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
